--- a/reportes/Reporte_lote_4.xlsx
+++ b/reportes/Reporte_lote_4.xlsx
@@ -16,8 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -31,6 +33,12 @@
       <i val="1"/>
       <color rgb="00139911"/>
       <sz val="20"/>
+    </font>
+    <font>
+      <name val="Times"/>
+      <b val="1"/>
+      <color rgb="00243783"/>
+      <sz val="12"/>
     </font>
   </fonts>
   <fills count="3">
@@ -58,9 +66,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -137,36 +154,6 @@
     </indexedColors>
   </colors>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>3</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5715000" cy="5715000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -453,12 +440,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="E1:E1"/>
+  <dimension ref="B1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,18 +453,122 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="60" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Reporte del lote 4</t>
+          <t>REPORTE DEL LOTE 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Fecha</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>Hora</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>Monto</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>ORDENANTE</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>FACTURA</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>FECHA FACTURA</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>MOTIVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>29 FEB 2024</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>12:08 PM</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>76</v>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>NAVARRETE VERA SANTO GIL</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>195</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>45351</v>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>ALICUOTA</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>26 MAR 2024</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>01:26 PM</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>76</v>
+      </c>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>SAMANIEGO AREVALO MAGALY PATRICIA</t>
+        </is>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3" t="inlineStr">
+        <is>
+          <t>ALICUOTA</t>
         </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/reportes/Reporte_lote_4.xlsx
+++ b/reportes/Reporte_lote_4.xlsx
@@ -16,9 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <name val="Calibri"/>
@@ -66,15 +64,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -507,58 +502,66 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="3" t="n">
-        <v>45351</v>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>2024-02-29 00:00:00</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>12:08 PM</t>
         </is>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" s="3" t="n">
         <v>76</v>
       </c>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="E5" s="3" t="inlineStr">
         <is>
           <t>NAVARRETE VERA SANTO GIL</t>
         </is>
       </c>
-      <c r="F5" s="4" t="n">
+      <c r="F5" s="3" t="n">
         <v>195</v>
       </c>
-      <c r="G5" s="3" t="n">
-        <v>45351</v>
-      </c>
-      <c r="H5" s="4" t="inlineStr">
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>2024-02-29 00:00:00</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
         <is>
           <t>ALICUOTA</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="3" t="n">
-        <v>45377</v>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>2024-03-26 00:00:00</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
         <is>
           <t>01:26 PM</t>
         </is>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" s="3" t="n">
         <v>76</v>
       </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="E6" s="3" t="inlineStr">
         <is>
           <t>SAMANIEGO AREVALO MAGALY PATRICIA</t>
         </is>
       </c>
-      <c r="F6" s="4" t="n">
+      <c r="F6" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4" t="inlineStr">
+      <c r="G6" s="3" t="inlineStr">
+        <is>
+          <t>1970-01-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="H6" s="3" t="inlineStr">
         <is>
           <t>ALICUOTA</t>
         </is>
